--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>713.4310089574749</v>
+        <v>90.56297805993189</v>
       </c>
       <c r="R2">
-        <v>713.4310089574749</v>
+        <v>815.066802539387</v>
       </c>
       <c r="S2">
-        <v>0.2401465357557221</v>
+        <v>0.0261657834761955</v>
       </c>
       <c r="T2">
-        <v>0.2401465357557221</v>
+        <v>0.02616578347619549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>398.698800611027</v>
+        <v>48.3514078655439</v>
       </c>
       <c r="R3">
-        <v>398.698800611027</v>
+        <v>435.162670789895</v>
       </c>
       <c r="S3">
-        <v>0.1342051783207626</v>
+        <v>0.01396986380176011</v>
       </c>
       <c r="T3">
-        <v>0.1342051783207626</v>
+        <v>0.01396986380176011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>895.2920962464369</v>
+        <v>108.7686980056995</v>
       </c>
       <c r="R4">
-        <v>895.2920962464369</v>
+        <v>978.9182820512959</v>
       </c>
       <c r="S4">
-        <v>0.3013624200568997</v>
+        <v>0.0314258459910784</v>
       </c>
       <c r="T4">
-        <v>0.3013624200568997</v>
+        <v>0.03142584599107839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H5">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>501.0295589215903</v>
+        <v>66.84892139213133</v>
       </c>
       <c r="R5">
-        <v>501.0295589215903</v>
+        <v>601.640292529182</v>
       </c>
       <c r="S5">
-        <v>0.1686505231417678</v>
+        <v>0.01931423237436145</v>
       </c>
       <c r="T5">
-        <v>0.1686505231417678</v>
+        <v>0.01931423237436145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H6">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>63.56031604092562</v>
+        <v>8.27832618524889</v>
       </c>
       <c r="R6">
-        <v>63.56031604092562</v>
+        <v>74.50493566723999</v>
       </c>
       <c r="S6">
-        <v>0.02139490646905279</v>
+        <v>0.002391803970549606</v>
       </c>
       <c r="T6">
-        <v>0.02139490646905279</v>
+        <v>0.002391803970549605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>26.9039853937197</v>
+        <v>755.1472262986601</v>
       </c>
       <c r="R7">
-        <v>26.9039853937197</v>
+        <v>6796.325036687941</v>
       </c>
       <c r="S7">
-        <v>0.009056094855991105</v>
+        <v>0.2181798703980826</v>
       </c>
       <c r="T7">
-        <v>0.009056094855991105</v>
+        <v>0.2181798703980826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>15.03521233792069</v>
+        <v>403.1717189461001</v>
       </c>
       <c r="R8">
-        <v>15.03521233792069</v>
+        <v>3628.5454705149</v>
       </c>
       <c r="S8">
-        <v>0.005060971715512528</v>
+        <v>0.1164858325958316</v>
       </c>
       <c r="T8">
-        <v>0.005060971715512528</v>
+        <v>0.1164858325958316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>33.76209497218892</v>
+        <v>906.9531763052801</v>
       </c>
       <c r="R9">
-        <v>33.76209497218892</v>
+        <v>8162.578586747521</v>
       </c>
       <c r="S9">
-        <v>0.01136458893099519</v>
+        <v>0.2620401950402642</v>
       </c>
       <c r="T9">
-        <v>0.01136458893099519</v>
+        <v>0.2620401950402642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H10">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>18.89417724461675</v>
+        <v>557.41075052676</v>
       </c>
       <c r="R10">
-        <v>18.89417724461675</v>
+        <v>5016.69675474084</v>
       </c>
       <c r="S10">
-        <v>0.006359929908120608</v>
+        <v>0.1610491319746006</v>
       </c>
       <c r="T10">
-        <v>0.006359929908120608</v>
+        <v>0.1610491319746006</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H11">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>2.396904245701492</v>
+        <v>69.02771078320001</v>
       </c>
       <c r="R11">
-        <v>2.396904245701492</v>
+        <v>621.2493970488</v>
       </c>
       <c r="S11">
-        <v>0.0008068169786795816</v>
+        <v>0.01994373609285895</v>
       </c>
       <c r="T11">
-        <v>0.0008068169786795816</v>
+        <v>0.01994373609285894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H12">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I12">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J12">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>83.71713147465802</v>
+        <v>30.375860237601</v>
       </c>
       <c r="R12">
-        <v>83.71713147465802</v>
+        <v>273.382742138409</v>
       </c>
       <c r="S12">
-        <v>0.02817985040547039</v>
+        <v>0.008776303506210489</v>
       </c>
       <c r="T12">
-        <v>0.02817985040547039</v>
+        <v>0.008776303506210493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H13">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I13">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J13">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>46.78507030177512</v>
+        <v>16.217616062085</v>
       </c>
       <c r="R13">
-        <v>46.78507030177512</v>
+        <v>145.958544558765</v>
       </c>
       <c r="S13">
-        <v>0.01574822571067822</v>
+        <v>0.00468565234349699</v>
       </c>
       <c r="T13">
-        <v>0.01574822571067822</v>
+        <v>0.004685652343496991</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H14">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I14">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J14">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>105.0575110818497</v>
+        <v>36.482267253408</v>
       </c>
       <c r="R14">
-        <v>105.0575110818497</v>
+        <v>328.340405280672</v>
       </c>
       <c r="S14">
-        <v>0.03536319142938798</v>
+        <v>0.01054058872756651</v>
       </c>
       <c r="T14">
-        <v>0.03536319142938798</v>
+        <v>0.01054058872756651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H15">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I15">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J15">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>58.79301141987349</v>
+        <v>22.421893987386</v>
       </c>
       <c r="R15">
-        <v>58.79301141987349</v>
+        <v>201.797045886474</v>
       </c>
       <c r="S15">
-        <v>0.01979019392465292</v>
+        <v>0.006478214782335227</v>
       </c>
       <c r="T15">
-        <v>0.01979019392465292</v>
+        <v>0.006478214782335229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.298413</v>
+      </c>
+      <c r="H16">
+        <v>0.895239</v>
+      </c>
+      <c r="I16">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J16">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N16">
+        <v>27.91412</v>
+      </c>
+      <c r="O16">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P16">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q16">
+        <v>2.77664543052</v>
+      </c>
+      <c r="R16">
+        <v>24.98980887468</v>
+      </c>
+      <c r="S16">
+        <v>0.0008022384497677878</v>
+      </c>
+      <c r="T16">
+        <v>0.0008022384497677878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.797374</v>
+      </c>
+      <c r="I17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>101.7913436666667</v>
+      </c>
+      <c r="N17">
+        <v>305.374031</v>
+      </c>
+      <c r="O17">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="P17">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="Q17">
+        <v>94.91615273273267</v>
+      </c>
+      <c r="R17">
+        <v>854.2453745945942</v>
+      </c>
+      <c r="S17">
+        <v>0.02742351846197727</v>
+      </c>
+      <c r="T17">
+        <v>0.02742351846197727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.797374</v>
+      </c>
+      <c r="I18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N18">
+        <v>163.038635</v>
+      </c>
+      <c r="O18">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="P18">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="Q18">
+        <v>50.67555983827668</v>
+      </c>
+      <c r="R18">
+        <v>456.0800385444901</v>
+      </c>
+      <c r="S18">
+        <v>0.01464136620359206</v>
+      </c>
+      <c r="T18">
+        <v>0.01464136620359206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="N16">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="O16">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="P16">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="Q16">
-        <v>7.458446952487535</v>
-      </c>
-      <c r="R16">
-        <v>7.458446952487535</v>
-      </c>
-      <c r="S16">
-        <v>0.002510572396306461</v>
-      </c>
-      <c r="T16">
-        <v>0.002510572396306461</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.797374</v>
+      </c>
+      <c r="I19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>122.2542826666667</v>
+      </c>
+      <c r="N19">
+        <v>366.762848</v>
+      </c>
+      <c r="O19">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="P19">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="Q19">
+        <v>113.9969839067947</v>
+      </c>
+      <c r="R19">
+        <v>1025.972855161152</v>
+      </c>
+      <c r="S19">
+        <v>0.03293642128100724</v>
+      </c>
+      <c r="T19">
+        <v>0.03293642128100724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.797374</v>
+      </c>
+      <c r="I20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>75.13712199999999</v>
+      </c>
+      <c r="N20">
+        <v>225.411366</v>
+      </c>
+      <c r="O20">
+        <v>0.2070842066291165</v>
+      </c>
+      <c r="P20">
+        <v>0.2070842066291166</v>
+      </c>
+      <c r="Q20">
+        <v>70.062210505876</v>
+      </c>
+      <c r="R20">
+        <v>630.5598945528841</v>
+      </c>
+      <c r="S20">
+        <v>0.02024262749781927</v>
+      </c>
+      <c r="T20">
+        <v>0.02024262749781928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.797374</v>
+      </c>
+      <c r="I21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.91412</v>
+      </c>
+      <c r="O21">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P21">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q21">
+        <v>8.676248168986668</v>
+      </c>
+      <c r="R21">
+        <v>78.08623352088</v>
+      </c>
+      <c r="S21">
+        <v>0.002506773030644014</v>
+      </c>
+      <c r="T21">
+        <v>0.002506773030644014</v>
       </c>
     </row>
   </sheetData>
